--- a/Music and Memory - Lucy/EdatFiles/P102/ExcelFiles/Bold2-1.xlsx
+++ b/Music and Memory - Lucy/EdatFiles/P102/ExcelFiles/Bold2-1.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
-  <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="288" yWindow="324" windowWidth="22692" windowHeight="9264"/>
   </bookViews>
   <sheets>
-    <sheet name="Bold2-1.txt" sheetId="1" r:id="rId1"/>
+    <sheet name="Bold2-1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="138">
   <si>
     <t>Z:\Avital\PhD-MusicFamiliarity\edatFiles\P102\Scan1\ISC_EXP_BOLD-Part2-102-1.edat2</t>
   </si>
@@ -285,9 +280,6 @@
     <t>09-20-2017</t>
   </si>
   <si>
-    <t>20/09/2017 5:33:13 PM</t>
-  </si>
-  <si>
     <t>male</t>
   </si>
   <si>
@@ -441,25 +433,326 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -467,19 +760,209 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -558,7 +1041,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -593,7 +1075,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -628,16 +1109,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -759,57 +1244,18 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:79">
       <c r="A1" t="s">
@@ -1152,17 +1598,17 @@
       <c r="AF3" t="s">
         <v>87</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AG3" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI3" t="s">
         <v>88</v>
       </c>
-      <c r="AH3" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>90</v>
       </c>
       <c r="AK3">
         <v>-999999</v>
@@ -1222,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="BI3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BJ3" t="s">
         <v>55</v>
@@ -1325,17 +1771,17 @@
       <c r="AF4" t="s">
         <v>87</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AG4" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI4" t="s">
         <v>88</v>
       </c>
-      <c r="AH4" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI4" t="s">
+      <c r="AJ4" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>90</v>
       </c>
       <c r="AK4">
         <v>-999999</v>
@@ -1374,19 +1820,19 @@
         <v>2</v>
       </c>
       <c r="BG4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BH4">
         <v>5</v>
       </c>
       <c r="BI4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BJ4" t="s">
         <v>55</v>
       </c>
       <c r="BK4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BL4">
         <v>1</v>
@@ -1419,7 +1865,7 @@
         <v>42553</v>
       </c>
       <c r="BV4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:79">
@@ -1519,17 +1965,17 @@
       <c r="AF5" t="s">
         <v>87</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AG5" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI5" t="s">
         <v>88</v>
       </c>
-      <c r="AH5" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI5" t="s">
+      <c r="AJ5" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>90</v>
       </c>
       <c r="AK5">
         <v>-999999</v>
@@ -1589,7 +2035,7 @@
         <v>1</v>
       </c>
       <c r="BI5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BJ5" t="s">
         <v>55</v>
@@ -1692,17 +2138,17 @@
       <c r="AF6" t="s">
         <v>87</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AG6" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI6" t="s">
         <v>88</v>
       </c>
-      <c r="AH6" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI6" t="s">
+      <c r="AJ6" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>90</v>
       </c>
       <c r="AK6">
         <v>-999999</v>
@@ -1744,16 +2190,16 @@
         <v>4</v>
       </c>
       <c r="BG6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BI6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BJ6" t="s">
         <v>55</v>
       </c>
       <c r="BK6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BL6">
         <v>0</v>
@@ -1786,7 +2232,7 @@
         <v>56573</v>
       </c>
       <c r="BV6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:79">
@@ -1886,17 +2332,17 @@
       <c r="AF7" t="s">
         <v>87</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AG7" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI7" t="s">
         <v>88</v>
       </c>
-      <c r="AH7" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI7" t="s">
+      <c r="AJ7" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>90</v>
       </c>
       <c r="AK7">
         <v>-999999</v>
@@ -1956,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="BI7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BJ7" t="s">
         <v>55</v>
@@ -2059,17 +2505,17 @@
       <c r="AF8" t="s">
         <v>87</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AG8" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI8" t="s">
         <v>88</v>
       </c>
-      <c r="AH8" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI8" t="s">
+      <c r="AJ8" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>90</v>
       </c>
       <c r="AK8">
         <v>-999999</v>
@@ -2108,16 +2554,16 @@
         <v>6</v>
       </c>
       <c r="BG8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BI8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BJ8" t="s">
         <v>55</v>
       </c>
       <c r="BK8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BL8">
         <v>1</v>
@@ -2150,7 +2596,7 @@
         <v>69676</v>
       </c>
       <c r="BV8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BX8">
         <v>1</v>
@@ -2253,17 +2699,17 @@
       <c r="AF9" t="s">
         <v>87</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AG9" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI9" t="s">
         <v>88</v>
       </c>
-      <c r="AH9" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI9" t="s">
+      <c r="AJ9" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>90</v>
       </c>
       <c r="AK9">
         <v>-999999</v>
@@ -2323,7 +2769,7 @@
         <v>2</v>
       </c>
       <c r="BI9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BJ9" t="s">
         <v>55</v>
@@ -2426,17 +2872,17 @@
       <c r="AF10" t="s">
         <v>87</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AG10" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI10" t="s">
         <v>88</v>
       </c>
-      <c r="AH10" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI10" t="s">
+      <c r="AJ10" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>90</v>
       </c>
       <c r="AK10">
         <v>-999999</v>
@@ -2475,16 +2921,16 @@
         <v>8</v>
       </c>
       <c r="BG10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BI10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BJ10" t="s">
         <v>55</v>
       </c>
       <c r="BK10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BL10">
         <v>0</v>
@@ -2517,7 +2963,7 @@
         <v>86134</v>
       </c>
       <c r="BV10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CA10">
         <v>4</v>
@@ -2620,17 +3066,17 @@
       <c r="AF11" t="s">
         <v>87</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AG11" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI11" t="s">
         <v>88</v>
       </c>
-      <c r="AH11" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI11" t="s">
+      <c r="AJ11" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>90</v>
       </c>
       <c r="AK11">
         <v>-999999</v>
@@ -2690,7 +3136,7 @@
         <v>2</v>
       </c>
       <c r="BI11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BJ11" t="s">
         <v>55</v>
@@ -2793,17 +3239,17 @@
       <c r="AF12" t="s">
         <v>87</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AG12" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH12" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI12" t="s">
         <v>88</v>
       </c>
-      <c r="AH12" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI12" t="s">
+      <c r="AJ12" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>90</v>
       </c>
       <c r="AK12">
         <v>-999999</v>
@@ -2842,16 +3288,16 @@
         <v>10</v>
       </c>
       <c r="BG12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BI12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BJ12" t="s">
         <v>55</v>
       </c>
       <c r="BK12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BL12">
         <v>0</v>
@@ -2884,7 +3330,7 @@
         <v>102908</v>
       </c>
       <c r="BV12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BZ12">
         <v>3</v>
@@ -2987,17 +3433,17 @@
       <c r="AF13" t="s">
         <v>87</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AG13" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH13" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI13" t="s">
         <v>88</v>
       </c>
-      <c r="AH13" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI13" t="s">
+      <c r="AJ13" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>90</v>
       </c>
       <c r="AK13">
         <v>-999999</v>
@@ -3057,7 +3503,7 @@
         <v>3</v>
       </c>
       <c r="BI13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BJ13" t="s">
         <v>55</v>
@@ -3160,17 +3606,17 @@
       <c r="AF14" t="s">
         <v>87</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AG14" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH14" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI14" t="s">
         <v>88</v>
       </c>
-      <c r="AH14" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI14" t="s">
+      <c r="AJ14" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>90</v>
       </c>
       <c r="AK14">
         <v>-999999</v>
@@ -3212,16 +3658,16 @@
         <v>12</v>
       </c>
       <c r="BG14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BI14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BJ14" t="s">
         <v>55</v>
       </c>
       <c r="BK14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BL14">
         <v>1</v>
@@ -3254,7 +3700,7 @@
         <v>121504</v>
       </c>
       <c r="BV14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:79">
@@ -3354,17 +3800,17 @@
       <c r="AF15" t="s">
         <v>87</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AG15" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH15" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI15" t="s">
         <v>88</v>
       </c>
-      <c r="AH15" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI15" t="s">
+      <c r="AJ15" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>90</v>
       </c>
       <c r="AK15">
         <v>-999999</v>
@@ -3424,7 +3870,7 @@
         <v>3</v>
       </c>
       <c r="BI15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BJ15" t="s">
         <v>55</v>
@@ -3527,17 +3973,17 @@
       <c r="AF16" t="s">
         <v>87</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AG16" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH16" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI16" t="s">
         <v>88</v>
       </c>
-      <c r="AH16" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI16" t="s">
+      <c r="AJ16" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>90</v>
       </c>
       <c r="AK16">
         <v>-999999</v>
@@ -3576,16 +4022,16 @@
         <v>14</v>
       </c>
       <c r="BG16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BI16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BJ16" t="s">
         <v>55</v>
       </c>
       <c r="BK16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BL16">
         <v>0</v>
@@ -3618,7 +4064,7 @@
         <v>141002</v>
       </c>
       <c r="BV16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BW16">
         <v>9</v>
@@ -3721,17 +4167,17 @@
       <c r="AF17" t="s">
         <v>87</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AG17" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH17" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI17" t="s">
         <v>88</v>
       </c>
-      <c r="AH17" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI17" t="s">
+      <c r="AJ17" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>90</v>
       </c>
       <c r="AK17">
         <v>-999999</v>
@@ -3791,7 +4237,7 @@
         <v>4</v>
       </c>
       <c r="BI17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BJ17" t="s">
         <v>55</v>
@@ -3894,17 +4340,17 @@
       <c r="AF18" t="s">
         <v>87</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AG18" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH18" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI18" t="s">
         <v>88</v>
       </c>
-      <c r="AH18" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI18" t="s">
+      <c r="AJ18" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>90</v>
       </c>
       <c r="AK18">
         <v>-999999</v>
@@ -3943,16 +4389,16 @@
         <v>16</v>
       </c>
       <c r="BG18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BI18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BJ18" t="s">
         <v>55</v>
       </c>
       <c r="BK18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BL18">
         <v>0</v>
@@ -3985,7 +4431,7 @@
         <v>163424</v>
       </c>
       <c r="BV18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BY18">
         <v>1</v>
@@ -4088,17 +4534,17 @@
       <c r="AF19" t="s">
         <v>87</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AG19" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH19" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI19" t="s">
         <v>88</v>
       </c>
-      <c r="AH19" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI19" t="s">
+      <c r="AJ19" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>90</v>
       </c>
       <c r="AK19">
         <v>-999999</v>
@@ -4158,7 +4604,7 @@
         <v>1</v>
       </c>
       <c r="BI19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BJ19" t="s">
         <v>55</v>
@@ -4261,17 +4707,17 @@
       <c r="AF20" t="s">
         <v>87</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AG20" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH20" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI20" t="s">
         <v>88</v>
       </c>
-      <c r="AH20" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI20" t="s">
+      <c r="AJ20" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>90</v>
       </c>
       <c r="AK20">
         <v>-999999</v>
@@ -4310,16 +4756,16 @@
         <v>18</v>
       </c>
       <c r="BG20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BI20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BJ20" t="s">
         <v>55</v>
       </c>
       <c r="BK20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BL20">
         <v>1</v>
@@ -4352,7 +4798,7 @@
         <v>177310</v>
       </c>
       <c r="BV20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BW20">
         <v>3</v>
@@ -4455,17 +4901,17 @@
       <c r="AF21" t="s">
         <v>87</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AG21" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH21" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI21" t="s">
         <v>88</v>
       </c>
-      <c r="AH21" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI21" t="s">
+      <c r="AJ21" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>90</v>
       </c>
       <c r="AK21">
         <v>-999999</v>
@@ -4525,7 +4971,7 @@
         <v>1</v>
       </c>
       <c r="BI21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BJ21" t="s">
         <v>55</v>
@@ -4628,17 +5074,17 @@
       <c r="AF22" t="s">
         <v>87</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AG22" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH22" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI22" t="s">
         <v>88</v>
       </c>
-      <c r="AH22" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI22" t="s">
+      <c r="AJ22" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>90</v>
       </c>
       <c r="AK22">
         <v>-999999</v>
@@ -4680,16 +5126,16 @@
         <v>20</v>
       </c>
       <c r="BG22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BI22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BJ22" t="s">
         <v>55</v>
       </c>
       <c r="BK22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BL22">
         <v>0</v>
@@ -4722,7 +5168,7 @@
         <v>191002</v>
       </c>
       <c r="BV22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:79">
@@ -4822,17 +5268,17 @@
       <c r="AF23" t="s">
         <v>87</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AG23" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH23" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI23" t="s">
         <v>88</v>
       </c>
-      <c r="AH23" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI23" t="s">
+      <c r="AJ23" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>90</v>
       </c>
       <c r="AK23">
         <v>-999999</v>
@@ -4892,7 +5338,7 @@
         <v>1</v>
       </c>
       <c r="BI23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BJ23" t="s">
         <v>55</v>
@@ -4995,17 +5441,17 @@
       <c r="AF24" t="s">
         <v>87</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AG24" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH24" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI24" t="s">
         <v>88</v>
       </c>
-      <c r="AH24" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI24" t="s">
+      <c r="AJ24" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>90</v>
       </c>
       <c r="AK24">
         <v>-999999</v>
@@ -5044,16 +5490,16 @@
         <v>22</v>
       </c>
       <c r="BG24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BI24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BJ24" t="s">
         <v>55</v>
       </c>
       <c r="BK24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BL24">
         <v>0</v>
@@ -5086,7 +5532,7 @@
         <v>204620</v>
       </c>
       <c r="BV24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BZ24">
         <v>9</v>
@@ -5189,17 +5635,17 @@
       <c r="AF25" t="s">
         <v>87</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AG25" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH25" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI25" t="s">
         <v>88</v>
       </c>
-      <c r="AH25" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI25" t="s">
+      <c r="AJ25" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>90</v>
       </c>
       <c r="AK25">
         <v>-999999</v>
@@ -5259,7 +5705,7 @@
         <v>2</v>
       </c>
       <c r="BI25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BJ25" t="s">
         <v>55</v>
@@ -5362,17 +5808,17 @@
       <c r="AF26" t="s">
         <v>87</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AG26" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH26" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI26" t="s">
         <v>88</v>
       </c>
-      <c r="AH26" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI26" t="s">
+      <c r="AJ26" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ26" t="s">
-        <v>90</v>
       </c>
       <c r="AK26">
         <v>-999999</v>
@@ -5411,16 +5857,16 @@
         <v>24</v>
       </c>
       <c r="BG26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BI26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BJ26" t="s">
         <v>55</v>
       </c>
       <c r="BK26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BL26">
         <v>1</v>
@@ -5453,7 +5899,7 @@
         <v>219507</v>
       </c>
       <c r="BV26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BX26">
         <v>5</v>
@@ -5556,17 +6002,17 @@
       <c r="AF27" t="s">
         <v>87</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AG27" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH27" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI27" t="s">
         <v>88</v>
       </c>
-      <c r="AH27" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI27" t="s">
+      <c r="AJ27" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ27" t="s">
-        <v>90</v>
       </c>
       <c r="AK27">
         <v>-999999</v>
@@ -5626,7 +6072,7 @@
         <v>2</v>
       </c>
       <c r="BI27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BJ27" t="s">
         <v>55</v>
@@ -5729,17 +6175,17 @@
       <c r="AF28" t="s">
         <v>87</v>
       </c>
-      <c r="AG28" t="s">
+      <c r="AG28" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH28" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI28" t="s">
         <v>88</v>
       </c>
-      <c r="AH28" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI28" t="s">
+      <c r="AJ28" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ28" t="s">
-        <v>90</v>
       </c>
       <c r="AK28">
         <v>-999999</v>
@@ -5778,19 +6224,19 @@
         <v>26</v>
       </c>
       <c r="BG28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BH28">
         <v>9</v>
       </c>
       <c r="BI28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BJ28" t="s">
         <v>55</v>
       </c>
       <c r="BK28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BL28">
         <v>1</v>
@@ -5823,7 +6269,7 @@
         <v>235178</v>
       </c>
       <c r="BV28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:79">
@@ -5923,17 +6369,17 @@
       <c r="AF29" t="s">
         <v>87</v>
       </c>
-      <c r="AG29" t="s">
+      <c r="AG29" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH29" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI29" t="s">
         <v>88</v>
       </c>
-      <c r="AH29" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI29" t="s">
+      <c r="AJ29" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ29" t="s">
-        <v>90</v>
       </c>
       <c r="AK29">
         <v>-999999</v>
@@ -5993,7 +6439,7 @@
         <v>3</v>
       </c>
       <c r="BI29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BJ29" t="s">
         <v>55</v>
@@ -6096,17 +6542,17 @@
       <c r="AF30" t="s">
         <v>87</v>
       </c>
-      <c r="AG30" t="s">
+      <c r="AG30" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH30" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI30" t="s">
         <v>88</v>
       </c>
-      <c r="AH30" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI30" t="s">
+      <c r="AJ30" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ30" t="s">
-        <v>90</v>
       </c>
       <c r="AK30">
         <v>-999999</v>
@@ -6145,16 +6591,16 @@
         <v>28</v>
       </c>
       <c r="BG30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BI30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BJ30" t="s">
         <v>55</v>
       </c>
       <c r="BK30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BL30">
         <v>1</v>
@@ -6187,7 +6633,7 @@
         <v>254523</v>
       </c>
       <c r="BV30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CA30">
         <v>6</v>
@@ -6290,17 +6736,17 @@
       <c r="AF31" t="s">
         <v>87</v>
       </c>
-      <c r="AG31" t="s">
+      <c r="AG31" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH31" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI31" t="s">
         <v>88</v>
       </c>
-      <c r="AH31" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI31" t="s">
+      <c r="AJ31" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ31" t="s">
-        <v>90</v>
       </c>
       <c r="AK31">
         <v>-999999</v>
@@ -6360,7 +6806,7 @@
         <v>3</v>
       </c>
       <c r="BI31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BJ31" t="s">
         <v>55</v>
@@ -6463,17 +6909,17 @@
       <c r="AF32" t="s">
         <v>87</v>
       </c>
-      <c r="AG32" t="s">
+      <c r="AG32" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH32" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI32" t="s">
         <v>88</v>
       </c>
-      <c r="AH32" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI32" t="s">
+      <c r="AJ32" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>90</v>
       </c>
       <c r="AK32">
         <v>-999999</v>
@@ -6515,16 +6961,16 @@
         <v>30</v>
       </c>
       <c r="BG32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BI32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BJ32" t="s">
         <v>55</v>
       </c>
       <c r="BK32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BL32">
         <v>0</v>
@@ -6557,7 +7003,7 @@
         <v>275723</v>
       </c>
       <c r="BV32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:79">
@@ -6657,17 +7103,17 @@
       <c r="AF33" t="s">
         <v>87</v>
       </c>
-      <c r="AG33" t="s">
+      <c r="AG33" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH33" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI33" t="s">
         <v>88</v>
       </c>
-      <c r="AH33" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI33" t="s">
+      <c r="AJ33" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>90</v>
       </c>
       <c r="AK33">
         <v>-999999</v>
@@ -6727,7 +7173,7 @@
         <v>4</v>
       </c>
       <c r="BI33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BJ33" t="s">
         <v>55</v>
@@ -6830,17 +7276,17 @@
       <c r="AF34" t="s">
         <v>87</v>
       </c>
-      <c r="AG34" t="s">
+      <c r="AG34" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH34" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI34" t="s">
         <v>88</v>
       </c>
-      <c r="AH34" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI34" t="s">
+      <c r="AJ34" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>90</v>
       </c>
       <c r="AK34">
         <v>-999999</v>
@@ -6879,16 +7325,16 @@
         <v>32</v>
       </c>
       <c r="BG34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BI34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BJ34" t="s">
         <v>55</v>
       </c>
       <c r="BK34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BL34">
         <v>0</v>
@@ -6921,7 +7367,7 @@
         <v>298096</v>
       </c>
       <c r="BV34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BY34">
         <v>9</v>
@@ -7024,17 +7470,17 @@
       <c r="AF35" t="s">
         <v>87</v>
       </c>
-      <c r="AG35" t="s">
+      <c r="AG35" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH35" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI35" t="s">
         <v>88</v>
       </c>
-      <c r="AH35" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI35" t="s">
+      <c r="AJ35" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ35" t="s">
-        <v>90</v>
       </c>
       <c r="AK35">
         <v>-999999</v>
@@ -7094,7 +7540,7 @@
         <v>1</v>
       </c>
       <c r="BI35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BJ35" t="s">
         <v>55</v>
@@ -7197,17 +7643,17 @@
       <c r="AF36" t="s">
         <v>87</v>
       </c>
-      <c r="AG36" t="s">
+      <c r="AG36" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH36" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI36" t="s">
         <v>88</v>
       </c>
-      <c r="AH36" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI36" t="s">
+      <c r="AJ36" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ36" t="s">
-        <v>90</v>
       </c>
       <c r="AK36">
         <v>-999999</v>
@@ -7246,16 +7692,16 @@
         <v>34</v>
       </c>
       <c r="BG36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BI36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BJ36" t="s">
         <v>55</v>
       </c>
       <c r="BK36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BL36">
         <v>0</v>
@@ -7288,7 +7734,7 @@
         <v>312240</v>
       </c>
       <c r="BV36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BZ36">
         <v>5</v>
@@ -7391,17 +7837,17 @@
       <c r="AF37" t="s">
         <v>87</v>
       </c>
-      <c r="AG37" t="s">
+      <c r="AG37" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH37" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI37" t="s">
         <v>88</v>
       </c>
-      <c r="AH37" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI37" t="s">
+      <c r="AJ37" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ37" t="s">
-        <v>90</v>
       </c>
       <c r="AK37">
         <v>-999999</v>
@@ -7461,7 +7907,7 @@
         <v>1</v>
       </c>
       <c r="BI37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BJ37" t="s">
         <v>55</v>
@@ -7564,17 +8010,17 @@
       <c r="AF38" t="s">
         <v>87</v>
       </c>
-      <c r="AG38" t="s">
+      <c r="AG38" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH38" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI38" t="s">
         <v>88</v>
       </c>
-      <c r="AH38" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI38" t="s">
+      <c r="AJ38" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ38" t="s">
-        <v>90</v>
       </c>
       <c r="AK38">
         <v>-999999</v>
@@ -7613,16 +8059,16 @@
         <v>36</v>
       </c>
       <c r="BG38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BI38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BJ38" t="s">
         <v>55</v>
       </c>
       <c r="BK38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BL38">
         <v>0</v>
@@ -7655,7 +8101,7 @@
         <v>326032</v>
       </c>
       <c r="BV38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BX38">
         <v>9</v>
@@ -7758,17 +8204,17 @@
       <c r="AF39" t="s">
         <v>87</v>
       </c>
-      <c r="AG39" t="s">
+      <c r="AG39" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH39" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI39" t="s">
         <v>88</v>
       </c>
-      <c r="AH39" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI39" t="s">
+      <c r="AJ39" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ39" t="s">
-        <v>90</v>
       </c>
       <c r="AK39">
         <v>-999999</v>
@@ -7828,7 +8274,7 @@
         <v>1</v>
       </c>
       <c r="BI39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BJ39" t="s">
         <v>55</v>
@@ -7931,17 +8377,17 @@
       <c r="AF40" t="s">
         <v>87</v>
       </c>
-      <c r="AG40" t="s">
+      <c r="AG40" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH40" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI40" t="s">
         <v>88</v>
       </c>
-      <c r="AH40" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI40" t="s">
+      <c r="AJ40" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ40" t="s">
-        <v>90</v>
       </c>
       <c r="AK40">
         <v>-999999</v>
@@ -7980,16 +8426,16 @@
         <v>38</v>
       </c>
       <c r="BG40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BI40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BJ40" t="s">
         <v>55</v>
       </c>
       <c r="BK40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BL40">
         <v>0</v>
@@ -8022,7 +8468,7 @@
         <v>340432</v>
       </c>
       <c r="BV40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CA40">
         <v>2</v>
@@ -8125,17 +8571,17 @@
       <c r="AF41" t="s">
         <v>87</v>
       </c>
-      <c r="AG41" t="s">
+      <c r="AG41" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH41" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI41" t="s">
         <v>88</v>
       </c>
-      <c r="AH41" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI41" t="s">
+      <c r="AJ41" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ41" t="s">
-        <v>90</v>
       </c>
       <c r="AK41">
         <v>-999999</v>
@@ -8195,7 +8641,7 @@
         <v>2</v>
       </c>
       <c r="BI41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BJ41" t="s">
         <v>55</v>
@@ -8298,17 +8744,17 @@
       <c r="AF42" t="s">
         <v>87</v>
       </c>
-      <c r="AG42" t="s">
+      <c r="AG42" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH42" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI42" t="s">
         <v>88</v>
       </c>
-      <c r="AH42" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI42" t="s">
+      <c r="AJ42" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ42" t="s">
-        <v>90</v>
       </c>
       <c r="AK42">
         <v>-999999</v>
@@ -8347,16 +8793,16 @@
         <v>40</v>
       </c>
       <c r="BG42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BI42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BJ42" t="s">
         <v>55</v>
       </c>
       <c r="BK42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BL42">
         <v>0</v>
@@ -8389,7 +8835,7 @@
         <v>356807</v>
       </c>
       <c r="BV42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BW42">
         <v>7</v>
@@ -8492,17 +8938,17 @@
       <c r="AF43" t="s">
         <v>87</v>
       </c>
-      <c r="AG43" t="s">
+      <c r="AG43" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH43" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI43" t="s">
         <v>88</v>
       </c>
-      <c r="AH43" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI43" t="s">
+      <c r="AJ43" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ43" t="s">
-        <v>90</v>
       </c>
       <c r="AK43">
         <v>-999999</v>
@@ -8562,7 +9008,7 @@
         <v>2</v>
       </c>
       <c r="BI43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BJ43" t="s">
         <v>55</v>
@@ -8665,17 +9111,17 @@
       <c r="AF44" t="s">
         <v>87</v>
       </c>
-      <c r="AG44" t="s">
+      <c r="AG44" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH44" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI44" t="s">
         <v>88</v>
       </c>
-      <c r="AH44" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI44" t="s">
+      <c r="AJ44" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ44" t="s">
-        <v>90</v>
       </c>
       <c r="AK44">
         <v>-999999</v>
@@ -8717,16 +9163,16 @@
         <v>42</v>
       </c>
       <c r="BG44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BI44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BJ44" t="s">
         <v>55</v>
       </c>
       <c r="BK44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BL44">
         <v>0</v>
@@ -8759,7 +9205,7 @@
         <v>371624</v>
       </c>
       <c r="BV44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:79">
@@ -8859,17 +9305,17 @@
       <c r="AF45" t="s">
         <v>87</v>
       </c>
-      <c r="AG45" t="s">
+      <c r="AG45" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH45" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI45" t="s">
         <v>88</v>
       </c>
-      <c r="AH45" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI45" t="s">
+      <c r="AJ45" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ45" t="s">
-        <v>90</v>
       </c>
       <c r="AK45">
         <v>-999999</v>
@@ -8929,7 +9375,7 @@
         <v>3</v>
       </c>
       <c r="BI45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BJ45" t="s">
         <v>55</v>
@@ -9032,17 +9478,17 @@
       <c r="AF46" t="s">
         <v>87</v>
       </c>
-      <c r="AG46" t="s">
+      <c r="AG46" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH46" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI46" t="s">
         <v>88</v>
       </c>
-      <c r="AH46" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI46" t="s">
+      <c r="AJ46" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ46" t="s">
-        <v>90</v>
       </c>
       <c r="AK46">
         <v>-999999</v>
@@ -9081,19 +9527,19 @@
         <v>44</v>
       </c>
       <c r="BG46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BH46">
         <v>3</v>
       </c>
       <c r="BI46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BJ46" t="s">
         <v>55</v>
       </c>
       <c r="BK46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BL46">
         <v>0</v>
@@ -9126,7 +9572,7 @@
         <v>391828</v>
       </c>
       <c r="BV46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:79">
@@ -9226,17 +9672,17 @@
       <c r="AF47" t="s">
         <v>87</v>
       </c>
-      <c r="AG47" t="s">
+      <c r="AG47" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH47" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI47" t="s">
         <v>88</v>
       </c>
-      <c r="AH47" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI47" t="s">
+      <c r="AJ47" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ47" t="s">
-        <v>90</v>
       </c>
       <c r="AK47">
         <v>-999999</v>
@@ -9296,7 +9742,7 @@
         <v>3</v>
       </c>
       <c r="BI47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BJ47" t="s">
         <v>55</v>
@@ -9399,17 +9845,17 @@
       <c r="AF48" t="s">
         <v>87</v>
       </c>
-      <c r="AG48" t="s">
+      <c r="AG48" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH48" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI48" t="s">
         <v>88</v>
       </c>
-      <c r="AH48" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI48" t="s">
+      <c r="AJ48" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ48" t="s">
-        <v>90</v>
       </c>
       <c r="AK48">
         <v>-999999</v>
@@ -9448,16 +9894,16 @@
         <v>46</v>
       </c>
       <c r="BG48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BI48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BJ48" t="s">
         <v>55</v>
       </c>
       <c r="BK48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BL48">
         <v>1</v>
@@ -9490,7 +9936,7 @@
         <v>411671</v>
       </c>
       <c r="BV48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BY48">
         <v>7</v>
@@ -9593,17 +10039,17 @@
       <c r="AF49" t="s">
         <v>87</v>
       </c>
-      <c r="AG49" t="s">
+      <c r="AG49" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH49" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI49" t="s">
         <v>88</v>
       </c>
-      <c r="AH49" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI49" t="s">
+      <c r="AJ49" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ49" t="s">
-        <v>90</v>
       </c>
       <c r="AK49">
         <v>-999999</v>
@@ -9663,7 +10109,7 @@
         <v>4</v>
       </c>
       <c r="BI49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BJ49" t="s">
         <v>55</v>
@@ -9766,17 +10212,17 @@
       <c r="AF50" t="s">
         <v>87</v>
       </c>
-      <c r="AG50" t="s">
+      <c r="AG50" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH50" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI50" t="s">
         <v>88</v>
       </c>
-      <c r="AH50" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI50" t="s">
+      <c r="AJ50" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ50" t="s">
-        <v>90</v>
       </c>
       <c r="AK50">
         <v>-999999</v>
@@ -9818,16 +10264,16 @@
         <v>48</v>
       </c>
       <c r="BG50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BI50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BJ50" t="s">
         <v>55</v>
       </c>
       <c r="BK50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BL50">
         <v>1</v>
@@ -9860,7 +10306,7 @@
         <v>435455</v>
       </c>
       <c r="BV50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:78">
@@ -9960,17 +10406,17 @@
       <c r="AF51" t="s">
         <v>87</v>
       </c>
-      <c r="AG51" t="s">
+      <c r="AG51" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH51" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI51" t="s">
         <v>88</v>
       </c>
-      <c r="AH51" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI51" t="s">
+      <c r="AJ51" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ51" t="s">
-        <v>90</v>
       </c>
       <c r="AK51">
         <v>-999999</v>
@@ -10030,7 +10476,7 @@
         <v>1</v>
       </c>
       <c r="BI51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BJ51" t="s">
         <v>55</v>
@@ -10133,17 +10579,17 @@
       <c r="AF52" t="s">
         <v>87</v>
       </c>
-      <c r="AG52" t="s">
+      <c r="AG52" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH52" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI52" t="s">
         <v>88</v>
       </c>
-      <c r="AH52" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI52" t="s">
+      <c r="AJ52" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ52" t="s">
-        <v>90</v>
       </c>
       <c r="AK52">
         <v>-999999</v>
@@ -10182,19 +10628,19 @@
         <v>50</v>
       </c>
       <c r="BG52" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BH52">
         <v>1</v>
       </c>
       <c r="BI52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BJ52" t="s">
         <v>55</v>
       </c>
       <c r="BK52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BL52">
         <v>0</v>
@@ -10227,7 +10673,7 @@
         <v>448676</v>
       </c>
       <c r="BV52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:78">
@@ -10327,17 +10773,17 @@
       <c r="AF53" t="s">
         <v>87</v>
       </c>
-      <c r="AG53" t="s">
+      <c r="AG53" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH53" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI53" t="s">
         <v>88</v>
       </c>
-      <c r="AH53" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI53" t="s">
+      <c r="AJ53" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ53" t="s">
-        <v>90</v>
       </c>
       <c r="AK53">
         <v>-999999</v>
@@ -10397,7 +10843,7 @@
         <v>1</v>
       </c>
       <c r="BI53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BJ53" t="s">
         <v>55</v>
@@ -10500,17 +10946,17 @@
       <c r="AF54" t="s">
         <v>87</v>
       </c>
-      <c r="AG54" t="s">
+      <c r="AG54" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH54" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI54" t="s">
         <v>88</v>
       </c>
-      <c r="AH54" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI54" t="s">
+      <c r="AJ54" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ54" t="s">
-        <v>90</v>
       </c>
       <c r="AK54">
         <v>-999999</v>
@@ -10549,16 +10995,16 @@
         <v>52</v>
       </c>
       <c r="BG54" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BI54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BJ54" t="s">
         <v>55</v>
       </c>
       <c r="BK54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BL54">
         <v>0</v>
@@ -10591,7 +11037,7 @@
         <v>462880</v>
       </c>
       <c r="BV54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BZ54">
         <v>7</v>
@@ -10694,17 +11140,17 @@
       <c r="AF55" t="s">
         <v>87</v>
       </c>
-      <c r="AG55" t="s">
+      <c r="AG55" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH55" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI55" t="s">
         <v>88</v>
       </c>
-      <c r="AH55" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI55" t="s">
+      <c r="AJ55" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ55" t="s">
-        <v>90</v>
       </c>
       <c r="AK55">
         <v>-999999</v>
@@ -10764,7 +11210,7 @@
         <v>1</v>
       </c>
       <c r="BI55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BJ55" t="s">
         <v>55</v>
@@ -10867,17 +11313,17 @@
       <c r="AF56" t="s">
         <v>87</v>
       </c>
-      <c r="AG56" t="s">
+      <c r="AG56" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH56" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI56" t="s">
         <v>88</v>
       </c>
-      <c r="AH56" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI56" t="s">
+      <c r="AJ56" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ56" t="s">
-        <v>90</v>
       </c>
       <c r="AK56">
         <v>-999999</v>
@@ -10916,16 +11362,16 @@
         <v>54</v>
       </c>
       <c r="BG56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BI56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BJ56" t="s">
         <v>55</v>
       </c>
       <c r="BK56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BL56">
         <v>0</v>
@@ -10958,7 +11404,7 @@
         <v>476441</v>
       </c>
       <c r="BV56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BX56">
         <v>3</v>
@@ -11061,17 +11507,17 @@
       <c r="AF57" t="s">
         <v>87</v>
       </c>
-      <c r="AG57" t="s">
+      <c r="AG57" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH57" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI57" t="s">
         <v>88</v>
       </c>
-      <c r="AH57" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI57" t="s">
+      <c r="AJ57" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ57" t="s">
-        <v>90</v>
       </c>
       <c r="AK57">
         <v>-999999</v>
@@ -11131,7 +11577,7 @@
         <v>2</v>
       </c>
       <c r="BI57" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BJ57" t="s">
         <v>55</v>
@@ -11234,17 +11680,17 @@
       <c r="AF58" t="s">
         <v>87</v>
       </c>
-      <c r="AG58" t="s">
+      <c r="AG58" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH58" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI58" t="s">
         <v>88</v>
       </c>
-      <c r="AH58" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI58" t="s">
+      <c r="AJ58" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ58" t="s">
-        <v>90</v>
       </c>
       <c r="AK58">
         <v>-999999</v>
@@ -11286,16 +11732,16 @@
         <v>56</v>
       </c>
       <c r="BG58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BI58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BJ58" t="s">
         <v>55</v>
       </c>
       <c r="BK58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BL58">
         <v>0</v>
@@ -11328,7 +11774,7 @@
         <v>492879</v>
       </c>
       <c r="BV58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:78">
@@ -11428,17 +11874,17 @@
       <c r="AF59" t="s">
         <v>87</v>
       </c>
-      <c r="AG59" t="s">
+      <c r="AG59" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH59" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI59" t="s">
         <v>88</v>
       </c>
-      <c r="AH59" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI59" t="s">
+      <c r="AJ59" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ59" t="s">
-        <v>90</v>
       </c>
       <c r="AK59">
         <v>-999999</v>
@@ -11498,7 +11944,7 @@
         <v>2</v>
       </c>
       <c r="BI59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BJ59" t="s">
         <v>55</v>
@@ -11601,17 +12047,17 @@
       <c r="AF60" t="s">
         <v>87</v>
       </c>
-      <c r="AG60" t="s">
+      <c r="AG60" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH60" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI60" t="s">
         <v>88</v>
       </c>
-      <c r="AH60" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI60" t="s">
+      <c r="AJ60" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ60" t="s">
-        <v>90</v>
       </c>
       <c r="AK60">
         <v>-999999</v>
@@ -11650,16 +12096,16 @@
         <v>58</v>
       </c>
       <c r="BG60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BI60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BJ60" t="s">
         <v>55</v>
       </c>
       <c r="BK60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BL60">
         <v>0</v>
@@ -11692,7 +12138,7 @@
         <v>508037</v>
       </c>
       <c r="BV60" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BW60">
         <v>5</v>
@@ -11795,17 +12241,17 @@
       <c r="AF61" t="s">
         <v>87</v>
       </c>
-      <c r="AG61" t="s">
+      <c r="AG61" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH61" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI61" t="s">
         <v>88</v>
       </c>
-      <c r="AH61" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI61" t="s">
+      <c r="AJ61" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ61" t="s">
-        <v>90</v>
       </c>
       <c r="AK61">
         <v>-999999</v>
@@ -11865,7 +12311,7 @@
         <v>3</v>
       </c>
       <c r="BI61" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BJ61" t="s">
         <v>55</v>
@@ -11968,17 +12414,17 @@
       <c r="AF62" t="s">
         <v>87</v>
       </c>
-      <c r="AG62" t="s">
+      <c r="AG62" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH62" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI62" t="s">
         <v>88</v>
       </c>
-      <c r="AH62" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI62" t="s">
+      <c r="AJ62" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ62" t="s">
-        <v>90</v>
       </c>
       <c r="AK62">
         <v>-999999</v>
@@ -12017,16 +12463,16 @@
         <v>60</v>
       </c>
       <c r="BG62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BI62" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BJ62" t="s">
         <v>55</v>
       </c>
       <c r="BK62" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BL62">
         <v>0</v>
@@ -12059,7 +12505,7 @@
         <v>526367</v>
       </c>
       <c r="BV62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BY62">
         <v>3</v>
@@ -12162,17 +12608,17 @@
       <c r="AF63" t="s">
         <v>87</v>
       </c>
-      <c r="AG63" t="s">
+      <c r="AG63" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH63" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI63" t="s">
         <v>88</v>
       </c>
-      <c r="AH63" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI63" t="s">
+      <c r="AJ63" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ63" t="s">
-        <v>90</v>
       </c>
       <c r="AK63">
         <v>-999999</v>
@@ -12232,7 +12678,7 @@
         <v>3</v>
       </c>
       <c r="BI63" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BJ63" t="s">
         <v>55</v>
@@ -12335,17 +12781,17 @@
       <c r="AF64" t="s">
         <v>87</v>
       </c>
-      <c r="AG64" t="s">
+      <c r="AG64" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH64" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI64" t="s">
         <v>88</v>
       </c>
-      <c r="AH64" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI64" t="s">
+      <c r="AJ64" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ64" t="s">
-        <v>90</v>
       </c>
       <c r="AK64">
         <v>-999999</v>
@@ -12387,16 +12833,16 @@
         <v>62</v>
       </c>
       <c r="BG64" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BI64" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BJ64" t="s">
         <v>55</v>
       </c>
       <c r="BK64" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BL64">
         <v>0</v>
@@ -12429,7 +12875,7 @@
         <v>546142</v>
       </c>
       <c r="BV64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:79">
@@ -12529,17 +12975,17 @@
       <c r="AF65" t="s">
         <v>87</v>
       </c>
-      <c r="AG65" t="s">
+      <c r="AG65" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH65" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI65" t="s">
         <v>88</v>
       </c>
-      <c r="AH65" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI65" t="s">
+      <c r="AJ65" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ65" t="s">
-        <v>90</v>
       </c>
       <c r="AK65">
         <v>-999999</v>
@@ -12599,7 +13045,7 @@
         <v>4</v>
       </c>
       <c r="BI65" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BJ65" t="s">
         <v>55</v>
@@ -12702,17 +13148,17 @@
       <c r="AF66" t="s">
         <v>87</v>
       </c>
-      <c r="AG66" t="s">
+      <c r="AG66" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH66" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI66" t="s">
         <v>88</v>
       </c>
-      <c r="AH66" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI66" t="s">
+      <c r="AJ66" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ66" t="s">
-        <v>90</v>
       </c>
       <c r="AK66">
         <v>-999999</v>
@@ -12751,16 +13197,16 @@
         <v>64</v>
       </c>
       <c r="BG66" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="BI66" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BJ66" t="s">
         <v>55</v>
       </c>
       <c r="BK66" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BL66">
         <v>0</v>
@@ -12793,7 +13239,7 @@
         <v>568042</v>
       </c>
       <c r="BV66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CA66">
         <v>8</v>
@@ -12896,17 +13342,17 @@
       <c r="AF67" t="s">
         <v>87</v>
       </c>
-      <c r="AG67" t="s">
+      <c r="AG67" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH67" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI67" t="s">
         <v>88</v>
       </c>
-      <c r="AH67" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI67" t="s">
+      <c r="AJ67" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ67" t="s">
-        <v>90</v>
       </c>
       <c r="AK67">
         <v>-999999</v>
@@ -12966,7 +13412,7 @@
         <v>1</v>
       </c>
       <c r="BI67" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BJ67" t="s">
         <v>55</v>
@@ -13069,17 +13515,17 @@
       <c r="AF68" t="s">
         <v>87</v>
       </c>
-      <c r="AG68" t="s">
+      <c r="AG68" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH68" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI68" t="s">
         <v>88</v>
       </c>
-      <c r="AH68" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI68" t="s">
+      <c r="AJ68" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ68" t="s">
-        <v>90</v>
       </c>
       <c r="AK68">
         <v>-999999</v>
@@ -13118,19 +13564,19 @@
         <v>66</v>
       </c>
       <c r="BG68" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BH68">
         <v>7</v>
       </c>
       <c r="BI68" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BJ68" t="s">
         <v>55</v>
       </c>
       <c r="BK68" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BL68">
         <v>0</v>
@@ -13163,7 +13609,7 @@
         <v>582015</v>
       </c>
       <c r="BV68" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" spans="1:79">
@@ -13263,17 +13709,17 @@
       <c r="AF69" t="s">
         <v>87</v>
       </c>
-      <c r="AG69" t="s">
+      <c r="AG69" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH69" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI69" t="s">
         <v>88</v>
       </c>
-      <c r="AH69" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI69" t="s">
+      <c r="AJ69" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ69" t="s">
-        <v>90</v>
       </c>
       <c r="AK69">
         <v>-999999</v>
@@ -13333,7 +13779,7 @@
         <v>1</v>
       </c>
       <c r="BI69" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BJ69" t="s">
         <v>55</v>
@@ -13436,17 +13882,17 @@
       <c r="AF70" t="s">
         <v>87</v>
       </c>
-      <c r="AG70" t="s">
+      <c r="AG70" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH70" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI70" t="s">
         <v>88</v>
       </c>
-      <c r="AH70" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI70" t="s">
+      <c r="AJ70" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ70" t="s">
-        <v>90</v>
       </c>
       <c r="AK70">
         <v>-999999</v>
@@ -13485,16 +13931,16 @@
         <v>68</v>
       </c>
       <c r="BG70" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BI70" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BJ70" t="s">
         <v>55</v>
       </c>
       <c r="BK70" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BL70">
         <v>0</v>
@@ -13527,7 +13973,7 @@
         <v>595765</v>
       </c>
       <c r="BV70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CA70">
         <v>10</v>
@@ -13630,17 +14076,17 @@
       <c r="AF71" t="s">
         <v>87</v>
       </c>
-      <c r="AG71" t="s">
+      <c r="AG71" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH71" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI71" t="s">
         <v>88</v>
       </c>
-      <c r="AH71" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI71" t="s">
+      <c r="AJ71" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ71" t="s">
-        <v>90</v>
       </c>
       <c r="AK71">
         <v>-999999</v>
@@ -13700,7 +14146,7 @@
         <v>1</v>
       </c>
       <c r="BI71" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BJ71" t="s">
         <v>55</v>
@@ -13803,17 +14249,17 @@
       <c r="AF72" t="s">
         <v>87</v>
       </c>
-      <c r="AG72" t="s">
+      <c r="AG72" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH72" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI72" t="s">
         <v>88</v>
       </c>
-      <c r="AH72" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI72" t="s">
+      <c r="AJ72" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ72" t="s">
-        <v>90</v>
       </c>
       <c r="AK72">
         <v>-999999</v>
@@ -13852,16 +14298,16 @@
         <v>70</v>
       </c>
       <c r="BG72" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="BI72" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BJ72" t="s">
         <v>55</v>
       </c>
       <c r="BK72" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BL72">
         <v>1</v>
@@ -13894,7 +14340,7 @@
         <v>609731</v>
       </c>
       <c r="BV72" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BX72">
         <v>7</v>
@@ -13997,17 +14443,17 @@
       <c r="AF73" t="s">
         <v>87</v>
       </c>
-      <c r="AG73" t="s">
+      <c r="AG73" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH73" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI73" t="s">
         <v>88</v>
       </c>
-      <c r="AH73" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI73" t="s">
+      <c r="AJ73" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ73" t="s">
-        <v>90</v>
       </c>
       <c r="AK73">
         <v>-999999</v>
@@ -14067,7 +14513,7 @@
         <v>2</v>
       </c>
       <c r="BI73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BJ73" t="s">
         <v>55</v>
@@ -14170,17 +14616,17 @@
       <c r="AF74" t="s">
         <v>87</v>
       </c>
-      <c r="AG74" t="s">
+      <c r="AG74" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH74" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI74" t="s">
         <v>88</v>
       </c>
-      <c r="AH74" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI74" t="s">
+      <c r="AJ74" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ74" t="s">
-        <v>90</v>
       </c>
       <c r="AK74">
         <v>-999999</v>
@@ -14222,16 +14668,16 @@
         <v>72</v>
       </c>
       <c r="BG74" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BI74" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BJ74" t="s">
         <v>55</v>
       </c>
       <c r="BK74" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BL74">
         <v>0</v>
@@ -14264,7 +14710,7 @@
         <v>626304</v>
       </c>
       <c r="BV74" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="75" spans="1:79">
@@ -14364,17 +14810,17 @@
       <c r="AF75" t="s">
         <v>87</v>
       </c>
-      <c r="AG75" t="s">
+      <c r="AG75" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH75" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI75" t="s">
         <v>88</v>
       </c>
-      <c r="AH75" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI75" t="s">
+      <c r="AJ75" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ75" t="s">
-        <v>90</v>
       </c>
       <c r="AK75">
         <v>-999999</v>
@@ -14434,7 +14880,7 @@
         <v>2</v>
       </c>
       <c r="BI75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BJ75" t="s">
         <v>55</v>
@@ -14537,17 +14983,17 @@
       <c r="AF76" t="s">
         <v>87</v>
       </c>
-      <c r="AG76" t="s">
+      <c r="AG76" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH76" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI76" t="s">
         <v>88</v>
       </c>
-      <c r="AH76" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI76" t="s">
+      <c r="AJ76" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ76" t="s">
-        <v>90</v>
       </c>
       <c r="AK76">
         <v>-999999</v>
@@ -14586,16 +15032,16 @@
         <v>74</v>
       </c>
       <c r="BG76" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="BI76" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BJ76" t="s">
         <v>55</v>
       </c>
       <c r="BK76" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BL76">
         <v>0</v>
@@ -14628,7 +15074,7 @@
         <v>642077</v>
       </c>
       <c r="BV76" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BZ76">
         <v>1</v>
@@ -14731,17 +15177,17 @@
       <c r="AF77" t="s">
         <v>87</v>
       </c>
-      <c r="AG77" t="s">
+      <c r="AG77" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH77" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI77" t="s">
         <v>88</v>
       </c>
-      <c r="AH77" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI77" t="s">
+      <c r="AJ77" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ77" t="s">
-        <v>90</v>
       </c>
       <c r="AK77">
         <v>-999999</v>
@@ -14801,7 +15247,7 @@
         <v>3</v>
       </c>
       <c r="BI77" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BJ77" t="s">
         <v>55</v>
@@ -14904,17 +15350,17 @@
       <c r="AF78" t="s">
         <v>87</v>
       </c>
-      <c r="AG78" t="s">
+      <c r="AG78" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH78" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI78" t="s">
         <v>88</v>
       </c>
-      <c r="AH78" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI78" t="s">
+      <c r="AJ78" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ78" t="s">
-        <v>90</v>
       </c>
       <c r="AK78">
         <v>-999999</v>
@@ -14953,16 +15399,16 @@
         <v>76</v>
       </c>
       <c r="BG78" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BI78" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BJ78" t="s">
         <v>55</v>
       </c>
       <c r="BK78" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BL78">
         <v>0</v>
@@ -14995,7 +15441,7 @@
         <v>662657</v>
       </c>
       <c r="BV78" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BW78">
         <v>1</v>
@@ -15098,17 +15544,17 @@
       <c r="AF79" t="s">
         <v>87</v>
       </c>
-      <c r="AG79" t="s">
+      <c r="AG79" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH79" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI79" t="s">
         <v>88</v>
       </c>
-      <c r="AH79" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI79" t="s">
+      <c r="AJ79" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ79" t="s">
-        <v>90</v>
       </c>
       <c r="AK79">
         <v>-999999</v>
@@ -15168,7 +15614,7 @@
         <v>3</v>
       </c>
       <c r="BI79" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BJ79" t="s">
         <v>55</v>
@@ -15271,17 +15717,17 @@
       <c r="AF80" t="s">
         <v>87</v>
       </c>
-      <c r="AG80" t="s">
+      <c r="AG80" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH80" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI80" t="s">
         <v>88</v>
       </c>
-      <c r="AH80" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI80" t="s">
+      <c r="AJ80" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ80" t="s">
-        <v>90</v>
       </c>
       <c r="AK80">
         <v>-999999</v>
@@ -15320,16 +15766,16 @@
         <v>78</v>
       </c>
       <c r="BG80" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BI80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BJ80" t="s">
         <v>55</v>
       </c>
       <c r="BK80" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BL80">
         <v>1</v>
@@ -15362,7 +15808,7 @@
         <v>681837</v>
       </c>
       <c r="BV80" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BY80">
         <v>5</v>
@@ -15465,17 +15911,17 @@
       <c r="AF81" t="s">
         <v>87</v>
       </c>
-      <c r="AG81" t="s">
+      <c r="AG81" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH81" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI81" t="s">
         <v>88</v>
       </c>
-      <c r="AH81" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI81" t="s">
+      <c r="AJ81" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ81" t="s">
-        <v>90</v>
       </c>
       <c r="AK81">
         <v>-999999</v>
@@ -15535,7 +15981,7 @@
         <v>4</v>
       </c>
       <c r="BI81" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BJ81" t="s">
         <v>55</v>
@@ -15638,17 +16084,17 @@
       <c r="AF82" t="s">
         <v>87</v>
       </c>
-      <c r="AG82" t="s">
+      <c r="AG82" s="1">
+        <v>42998.731400462966</v>
+      </c>
+      <c r="AH82" s="2">
+        <v>0.56473379629629628</v>
+      </c>
+      <c r="AI82" t="s">
         <v>88</v>
       </c>
-      <c r="AH82" s="1">
-        <v>0.56473379629629628</v>
-      </c>
-      <c r="AI82" t="s">
+      <c r="AJ82" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ82" t="s">
-        <v>90</v>
       </c>
       <c r="AK82">
         <v>-999999</v>
@@ -15690,16 +16136,16 @@
         <v>80</v>
       </c>
       <c r="BG82" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BI82" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BJ82" t="s">
         <v>55</v>
       </c>
       <c r="BK82" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BL82">
         <v>1</v>
@@ -15732,15 +16178,10 @@
         <v>705260</v>
       </c>
       <c r="BV82" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>